--- a/templates/dataplant/minSCe/minSCe_-_Single_cell_library_construction.xlsx
+++ b/templates/dataplant/minSCe/minSCe_-_Single_cell_library_construction.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
   <si>
     <t xml:space="preserve">TEMPLATE</t>
   </si>
@@ -92,6 +92,9 @@
     <t xml:space="preserve">minSCe</t>
   </si>
   <si>
+    <t xml:space="preserve">Transcriptomics</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tags Term Accession Number</t>
   </si>
   <si>
@@ -104,12 +107,18 @@
     <t xml:space="preserve">https://bioregistry.io/OBI:0000711</t>
   </si>
   <si>
+    <t xml:space="preserve">https://bioregistry.io/NCIT:C153189</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tags Term Source REF</t>
   </si>
   <si>
     <t xml:space="preserve">OBI</t>
   </si>
   <si>
+    <t xml:space="preserve">NCIT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comment[description]</t>
   </si>
   <si>
@@ -120,6 +129,9 @@
   </si>
   <si>
     <t xml:space="preserve">"process which results in the creation of a library from fragments of DNA using cloning vectors or oligonucleotides with the role of adaptors" []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"A study of the complete set of RNA transcripts that are produced by the genome, under specific circumstances or in a specific cell." []</t>
   </si>
   <si>
     <t xml:space="preserve">Comment[isObsolete]</t>
@@ -540,258 +552,273 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="0" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>34</v>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>35</v>
+      <c r="A18" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>37</v>
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>39</v>
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>40</v>
+      <c r="A21" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>42</v>
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>44</v>
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>45</v>
+      <c r="A24" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>47</v>
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>49</v>
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>51</v>
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>53</v>
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>55</v>
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>57</v>
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -813,217 +840,217 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F13:F17 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="H2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="O2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Q2" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="M2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="N2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="P2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="S2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="X2" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y2" s="0" t="s">
+      <c r="T2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="U2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AA2" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB2" s="0" t="s">
+      <c r="V2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AC2" s="0" t="s">
+      <c r="W2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AD2" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE2" s="0" t="s">
+      <c r="X2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AF2" s="0" t="s">
+      <c r="Z2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AG2" s="0" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AH2" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI2" s="0" t="s">
+      <c r="AC2" s="1" t="s">
         <v>118</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/minSCe/minSCe_-_Single_cell_library_construction.xlsx
+++ b/templates/dataplant/minSCe/minSCe_-_Single_cell_library_construction.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="isa_template" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="single_cell_library_constructio" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="single_cell_library" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Table</t>
   </si>
   <si>
-    <t xml:space="preserve">single_cell_library_construction</t>
+    <t xml:space="preserve">single_cell_library</t>
   </si>
   <si>
     <t xml:space="preserve">ERS</t>
@@ -555,10 +555,13 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13:F17"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.45"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -654,7 +657,7 @@
       <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -671,7 +674,7 @@
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -688,7 +691,7 @@
       <c r="D15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -705,7 +708,7 @@
       <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -722,7 +725,7 @@
       <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -840,7 +843,7 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F13:F17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/templates/dataplant/minSCe/minSCe_-_Single_cell_library_construction.xlsx
+++ b/templates/dataplant/minSCe/minSCe_-_Single_cell_library_construction.xlsx
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Version</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0.1</t>
+    <t xml:space="preserve">1.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">Description</t>
@@ -555,7 +555,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
